--- a/static/download/2023/RP3_APT_ATC_PRE_2023_Jan_Mar.xlsx
+++ b/static/download/2023/RP3_APT_ATC_PRE_2023_Jan_Mar.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>Data source</t>
   </si>
@@ -750,7 +750,9 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
